--- a/src/main/resources/templates/exceltemplates/Dispensary_Checklist_V1.xlsx
+++ b/src/main/resources/templates/exceltemplates/Dispensary_Checklist_V1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DGA_Maharastra\Xforms\Mail Template\DGA_Maharastra_Checklist_r1\Dispansary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DGA_Maharastra\Xforms\Mail Template\Mailtemplate\Dispansary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89F359-F22D-40A8-BB67-5E43E3ADEA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C909278E-0FA3-4985-A016-A3D042A5A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nN8AlTzfEPFv//ZEYGy+TRi85tmZwYDrH0M41wRX486KIdDDE6IxWZJdFt7Mj1nWrh9HrFIAd/x+3qFts0Ny/w==" workbookSaltValue="E3FvBIKJcyObwbFU77PbHw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -409,9 +409,6 @@
     <t>max_b</t>
   </si>
   <si>
-    <t>sec_b</t>
-  </si>
-  <si>
     <t>rmrks_b</t>
   </si>
   <si>
@@ -421,21 +418,12 @@
     <t>max_d</t>
   </si>
   <si>
-    <t>sec_d</t>
-  </si>
-  <si>
     <t>max_e</t>
   </si>
   <si>
-    <t>sec_e</t>
-  </si>
-  <si>
     <t>max_g</t>
   </si>
   <si>
-    <t>sec_g</t>
-  </si>
-  <si>
     <t>rmrks_f</t>
   </si>
   <si>
@@ -481,9 +469,6 @@
     <t>max_k</t>
   </si>
   <si>
-    <t>sec_k</t>
-  </si>
-  <si>
     <t>bg_h</t>
   </si>
   <si>
@@ -535,9 +520,6 @@
     <t>max_h</t>
   </si>
   <si>
-    <t>sec_h</t>
-  </si>
-  <si>
     <t>rmrks_h</t>
   </si>
   <si>
@@ -571,9 +553,6 @@
     <t>max_c</t>
   </si>
   <si>
-    <t>sec_c</t>
-  </si>
-  <si>
     <t>rmrks_d</t>
   </si>
   <si>
@@ -694,9 +673,6 @@
     <t>max_j</t>
   </si>
   <si>
-    <t>sec_j</t>
-  </si>
-  <si>
     <t>eg_h</t>
   </si>
   <si>
@@ -754,9 +730,6 @@
     <t>max_hf</t>
   </si>
   <si>
-    <t>sec_hf</t>
-  </si>
-  <si>
     <t>C.1. HR available</t>
   </si>
   <si>
@@ -1306,9 +1279,6 @@
     <t>Maximum score for RNTCP: 1</t>
   </si>
   <si>
-    <t>sec_i.1</t>
-  </si>
-  <si>
     <t>bg_i.2</t>
   </si>
   <si>
@@ -1342,9 +1312,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>sec_i.2</t>
-  </si>
-  <si>
     <t>eg_i.2</t>
   </si>
   <si>
@@ -1378,9 +1345,6 @@
     <t>Maximum score for NVBDCP: 3</t>
   </si>
   <si>
-    <t>sec_i.3</t>
-  </si>
-  <si>
     <t>eg_i.3</t>
   </si>
   <si>
@@ -1408,9 +1372,6 @@
     <t>Maximum score for NLEP: 2</t>
   </si>
   <si>
-    <t>sec_i.4</t>
-  </si>
-  <si>
     <t>eg_i.4</t>
   </si>
   <si>
@@ -1444,9 +1405,6 @@
     <t>Maximum score NPCB For: 3</t>
   </si>
   <si>
-    <t>sec_i.5</t>
-  </si>
-  <si>
     <t>eg_i.5</t>
   </si>
   <si>
@@ -1474,9 +1432,6 @@
     <t>Maximum score for IDSP: 2</t>
   </si>
   <si>
-    <t>sec_i.6</t>
-  </si>
-  <si>
     <t>eg_i.6</t>
   </si>
   <si>
@@ -1489,9 +1444,6 @@
     <t>max_i.7</t>
   </si>
   <si>
-    <t>sec_i.7</t>
-  </si>
-  <si>
     <t>eg_i.7</t>
   </si>
   <si>
@@ -1513,9 +1465,6 @@
     <t>Maximum score for NMHP: 3</t>
   </si>
   <si>
-    <t>sec_i.8</t>
-  </si>
-  <si>
     <t>eg_i.8</t>
   </si>
   <si>
@@ -1525,9 +1474,6 @@
     <t>max_i</t>
   </si>
   <si>
-    <t>sec_i</t>
-  </si>
-  <si>
     <t>H.6. Atleast one usable toilet:</t>
   </si>
   <si>
@@ -1555,9 +1501,6 @@
     <t>q_h.18</t>
   </si>
   <si>
-    <t>sec_f</t>
-  </si>
-  <si>
     <t>max_f</t>
   </si>
   <si>
@@ -1780,9 +1723,6 @@
     <t>max_c.1</t>
   </si>
   <si>
-    <t>sec_c.1</t>
-  </si>
-  <si>
     <t>q_c.1.10</t>
   </si>
   <si>
@@ -2168,9 +2108,6 @@
   </si>
   <si>
     <t>max_c.2</t>
-  </si>
-  <si>
-    <t>sec_c.2</t>
   </si>
   <si>
     <t>eg_c.2</t>
@@ -3487,6 +3424,69 @@
   </si>
   <si>
     <t xml:space="preserve">Overall secured score for health facility: </t>
+  </si>
+  <si>
+    <t>calc_b</t>
+  </si>
+  <si>
+    <t>calc_c.1</t>
+  </si>
+  <si>
+    <t>calc_c.2</t>
+  </si>
+  <si>
+    <t>calc_c</t>
+  </si>
+  <si>
+    <t>calc_d</t>
+  </si>
+  <si>
+    <t>calc_e</t>
+  </si>
+  <si>
+    <t>calc_f</t>
+  </si>
+  <si>
+    <t>calc_g</t>
+  </si>
+  <si>
+    <t>calc_h</t>
+  </si>
+  <si>
+    <t>calc_i.1</t>
+  </si>
+  <si>
+    <t>calc_i.2</t>
+  </si>
+  <si>
+    <t>calc_i.3</t>
+  </si>
+  <si>
+    <t>calc_i.4</t>
+  </si>
+  <si>
+    <t>calc_i.5</t>
+  </si>
+  <si>
+    <t>calc_i.6</t>
+  </si>
+  <si>
+    <t>calc_i.7</t>
+  </si>
+  <si>
+    <t>calc_i.8</t>
+  </si>
+  <si>
+    <t>calc_i</t>
+  </si>
+  <si>
+    <t>calc_j</t>
+  </si>
+  <si>
+    <t>calc_k</t>
+  </si>
+  <si>
+    <t>calc_hf</t>
   </si>
 </sst>
 </file>
@@ -4306,15 +4306,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="64.5546875" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9.109375" style="9"/>
   </cols>
@@ -4327,10 +4327,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4363,7 +4363,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4" s="61"/>
     </row>
@@ -4396,7 +4396,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>3</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="7" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>69</v>
@@ -4429,19 +4429,19 @@
     </row>
     <row r="10" spans="1:4" ht="14.4">
       <c r="A10" s="7" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4" ht="14.4">
       <c r="A11" s="7" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>70</v>
@@ -4453,19 +4453,19 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:4" ht="14.4">
       <c r="A13" s="7" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>71</v>
@@ -4519,7 +4519,7 @@
         <v>105</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="D17" s="60"/>
     </row>
@@ -4531,7 +4531,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="D18" s="60"/>
     </row>
@@ -4543,7 +4543,7 @@
         <v>106</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="D19" s="60"/>
     </row>
@@ -4555,7 +4555,7 @@
         <v>115</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="D20" s="60"/>
     </row>
@@ -4567,7 +4567,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="D21" s="60"/>
     </row>
@@ -4579,7 +4579,7 @@
         <v>108</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="D22" s="60"/>
     </row>
@@ -4591,7 +4591,7 @@
         <v>109</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="D23" s="60"/>
     </row>
@@ -4603,7 +4603,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="D24" s="60"/>
     </row>
@@ -4627,7 +4627,7 @@
         <v>112</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="D26" s="60"/>
     </row>
@@ -4648,7 +4648,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
@@ -4658,7 +4658,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>7</v>
@@ -4670,10 +4670,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="D30" s="60"/>
     </row>
@@ -4682,10 +4682,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="D31" s="60"/>
     </row>
@@ -4694,10 +4694,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="D32" s="60"/>
     </row>
@@ -4706,10 +4706,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="D33" s="60"/>
     </row>
@@ -4718,10 +4718,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="D34" s="60"/>
     </row>
@@ -4730,10 +4730,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="D35" s="65"/>
     </row>
@@ -4742,10 +4742,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="D36" s="65"/>
     </row>
@@ -4754,10 +4754,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="D37" s="65"/>
     </row>
@@ -4766,10 +4766,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="D38" s="60"/>
     </row>
@@ -4778,10 +4778,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="D39" s="65"/>
     </row>
@@ -4790,10 +4790,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="D40" s="66"/>
     </row>
@@ -4802,10 +4802,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="D41" s="65"/>
     </row>
@@ -4814,10 +4814,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="D42" s="13"/>
     </row>
@@ -4826,10 +4826,10 @@
         <v>5</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="D43" s="61"/>
     </row>
@@ -4841,7 +4841,7 @@
         <v>122</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="D44" s="67"/>
     </row>
@@ -4850,10 +4850,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>123</v>
+        <v>1127</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="D45" s="67"/>
     </row>
@@ -4862,7 +4862,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>23</v>
@@ -4874,7 +4874,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
@@ -4887,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="D48" s="68"/>
     </row>
@@ -4896,10 +4896,10 @@
         <v>32</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D49" s="69"/>
     </row>
@@ -4911,7 +4911,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D50" s="60"/>
     </row>
@@ -4923,7 +4923,7 @@
         <v>74</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D51" s="60"/>
     </row>
@@ -4935,7 +4935,7 @@
         <v>75</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D52" s="60"/>
     </row>
@@ -4944,10 +4944,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D53" s="60"/>
     </row>
@@ -4956,10 +4956,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D54" s="60"/>
     </row>
@@ -4968,10 +4968,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D55" s="60"/>
     </row>
@@ -4980,10 +4980,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D56" s="60"/>
     </row>
@@ -4992,10 +4992,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D57" s="60"/>
     </row>
@@ -5004,10 +5004,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D58" s="60"/>
     </row>
@@ -5016,10 +5016,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="D59" s="60"/>
     </row>
@@ -5028,10 +5028,10 @@
         <v>6</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D60" s="60"/>
     </row>
@@ -5040,10 +5040,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D61" s="60"/>
     </row>
@@ -5052,10 +5052,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="D62" s="70"/>
     </row>
@@ -5064,10 +5064,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>580</v>
+        <v>1128</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="D63" s="67"/>
     </row>
@@ -5076,7 +5076,7 @@
         <v>33</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
@@ -5086,10 +5086,10 @@
         <v>32</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D65" s="71"/>
     </row>
@@ -5098,10 +5098,10 @@
         <v>32</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="C66" s="72" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D66" s="72"/>
     </row>
@@ -5110,10 +5110,10 @@
         <v>5</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="D67" s="60"/>
     </row>
@@ -5122,10 +5122,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="D68" s="63"/>
     </row>
@@ -5134,10 +5134,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="D69" s="60"/>
     </row>
@@ -5146,10 +5146,10 @@
         <v>5</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="D70" s="60"/>
     </row>
@@ -5158,7 +5158,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C71" s="72"/>
       <c r="D71" s="72"/>
@@ -5168,10 +5168,10 @@
         <v>32</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="C72" s="73" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="D72" s="73"/>
     </row>
@@ -5180,10 +5180,10 @@
         <v>5</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D73" s="60"/>
     </row>
@@ -5192,10 +5192,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="D74" s="60"/>
     </row>
@@ -5204,10 +5204,10 @@
         <v>5</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="D75" s="60"/>
     </row>
@@ -5216,10 +5216,10 @@
         <v>5</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="D76" s="60"/>
     </row>
@@ -5228,10 +5228,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="D77" s="60"/>
     </row>
@@ -5240,10 +5240,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="D78" s="60"/>
     </row>
@@ -5252,10 +5252,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="D79" s="60"/>
     </row>
@@ -5264,7 +5264,7 @@
         <v>33</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="C80" s="73"/>
       <c r="D80" s="73"/>
@@ -5274,10 +5274,10 @@
         <v>32</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="C81" s="71" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="D81" s="71"/>
     </row>
@@ -5286,10 +5286,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="C82" s="60" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="D82" s="60"/>
     </row>
@@ -5298,10 +5298,10 @@
         <v>5</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="C83" s="60" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="D83" s="60"/>
     </row>
@@ -5310,10 +5310,10 @@
         <v>5</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="C84" s="60" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D84" s="60"/>
     </row>
@@ -5322,10 +5322,10 @@
         <v>5</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C85" s="60" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="D85" s="60"/>
     </row>
@@ -5334,10 +5334,10 @@
         <v>5</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="C86" s="60" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D86" s="60"/>
     </row>
@@ -5346,10 +5346,10 @@
         <v>5</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D87" s="60"/>
     </row>
@@ -5358,10 +5358,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="C88" s="60" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="D88" s="60"/>
     </row>
@@ -5370,7 +5370,7 @@
         <v>33</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="C89" s="71"/>
       <c r="D89" s="71"/>
@@ -5380,10 +5380,10 @@
         <v>32</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="C90" s="73" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="D90" s="73"/>
     </row>
@@ -5392,10 +5392,10 @@
         <v>5</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="D91" s="60"/>
     </row>
@@ -5404,10 +5404,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="D92" s="60"/>
     </row>
@@ -5416,10 +5416,10 @@
         <v>5</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="C93" s="60" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="D93" s="60"/>
     </row>
@@ -5428,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="C94" s="60" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="D94" s="60"/>
     </row>
@@ -5440,10 +5440,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="D95" s="60"/>
     </row>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="D96" s="60"/>
     </row>
@@ -5464,10 +5464,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="C97" s="60" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D97" s="60"/>
     </row>
@@ -5476,7 +5476,7 @@
         <v>33</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="C98" s="73"/>
       <c r="D98" s="73"/>
@@ -5486,10 +5486,10 @@
         <v>32</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="C99" s="69" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="D99" s="69"/>
     </row>
@@ -5498,10 +5498,10 @@
         <v>5</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="D100" s="60"/>
     </row>
@@ -5510,10 +5510,10 @@
         <v>5</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="C101" s="60" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="D101" s="60"/>
     </row>
@@ -5522,10 +5522,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="C102" s="60" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="D102" s="60"/>
     </row>
@@ -5534,10 +5534,10 @@
         <v>5</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="C103" s="60" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="D103" s="60"/>
     </row>
@@ -5546,10 +5546,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="C104" s="60" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="D104" s="60"/>
     </row>
@@ -5558,10 +5558,10 @@
         <v>5</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="C105" s="60" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="D105" s="60"/>
     </row>
@@ -5570,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="C106" s="60" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D106" s="60"/>
     </row>
@@ -5582,7 +5582,7 @@
         <v>33</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="C107" s="74"/>
       <c r="D107" s="74"/>
@@ -5592,10 +5592,10 @@
         <v>32</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="D108" s="71"/>
     </row>
@@ -5604,10 +5604,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="C109" s="60" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="D109" s="60"/>
     </row>
@@ -5616,10 +5616,10 @@
         <v>5</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="C110" s="60" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D110" s="60"/>
     </row>
@@ -5628,10 +5628,10 @@
         <v>5</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="C111" s="60" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="D111" s="60"/>
     </row>
@@ -5640,10 +5640,10 @@
         <v>5</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="D112" s="60"/>
     </row>
@@ -5652,10 +5652,10 @@
         <v>5</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="C113" s="60" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="D113" s="60"/>
     </row>
@@ -5664,7 +5664,7 @@
         <v>33</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="C114" s="75"/>
       <c r="D114" s="75"/>
@@ -5674,10 +5674,10 @@
         <v>32</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="D115" s="69"/>
     </row>
@@ -5686,10 +5686,10 @@
         <v>5</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="C116" s="60" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D116" s="60"/>
     </row>
@@ -5698,10 +5698,10 @@
         <v>5</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="C117" s="60" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="D117" s="60"/>
     </row>
@@ -5710,10 +5710,10 @@
         <v>5</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="D118" s="60"/>
     </row>
@@ -5722,10 +5722,10 @@
         <v>5</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="C119" s="60" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="D119" s="60"/>
     </row>
@@ -5734,10 +5734,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="C120" s="60" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="D120" s="60"/>
     </row>
@@ -5746,10 +5746,10 @@
         <v>5</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="C121" s="60" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="D121" s="60"/>
     </row>
@@ -5758,10 +5758,10 @@
         <v>5</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="C122" s="60" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="D122" s="60"/>
     </row>
@@ -5770,7 +5770,7 @@
         <v>33</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="C123" s="74"/>
       <c r="D123" s="74"/>
@@ -5780,10 +5780,10 @@
         <v>32</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="D124" s="71"/>
     </row>
@@ -5792,10 +5792,10 @@
         <v>5</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="C125" s="60" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="D125" s="60"/>
     </row>
@@ -5804,10 +5804,10 @@
         <v>5</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="C126" s="60" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="D126" s="60"/>
     </row>
@@ -5816,10 +5816,10 @@
         <v>5</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="C127" s="60" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="D127" s="60"/>
     </row>
@@ -5828,10 +5828,10 @@
         <v>5</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="C128" s="60" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D128" s="60"/>
     </row>
@@ -5840,10 +5840,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="C129" s="60" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D129" s="60"/>
     </row>
@@ -5852,10 +5852,10 @@
         <v>5</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="C130" s="60" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="D130" s="60"/>
     </row>
@@ -5864,10 +5864,10 @@
         <v>5</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="C131" s="60" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D131" s="60"/>
     </row>
@@ -5876,7 +5876,7 @@
         <v>33</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="C132" s="75"/>
       <c r="D132" s="75"/>
@@ -5886,10 +5886,10 @@
         <v>32</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="D133" s="69"/>
     </row>
@@ -5898,10 +5898,10 @@
         <v>5</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="C134" s="63" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="D134" s="63"/>
     </row>
@@ -5910,10 +5910,10 @@
         <v>5</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="C135" s="63" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="D135" s="63"/>
     </row>
@@ -5922,10 +5922,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="C136" s="63" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="D136" s="63"/>
     </row>
@@ -5934,10 +5934,10 @@
         <v>5</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="C137" s="63" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D137" s="63"/>
     </row>
@@ -5946,10 +5946,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="C138" s="63" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="D138" s="63"/>
     </row>
@@ -5958,10 +5958,10 @@
         <v>5</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="C139" s="63" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="D139" s="63"/>
     </row>
@@ -5970,10 +5970,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C140" s="63" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="D140" s="63"/>
     </row>
@@ -5982,7 +5982,7 @@
         <v>33</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="C141" s="74"/>
       <c r="D141" s="74"/>
@@ -5992,10 +5992,10 @@
         <v>32</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="C142" s="71" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="D142" s="71"/>
     </row>
@@ -6004,10 +6004,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="C143" s="63" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="D143" s="63"/>
     </row>
@@ -6016,10 +6016,10 @@
         <v>5</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="C144" s="63" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="D144" s="63"/>
     </row>
@@ -6028,10 +6028,10 @@
         <v>5</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="C145" s="63" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="D145" s="63"/>
     </row>
@@ -6040,10 +6040,10 @@
         <v>5</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="C146" s="63" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="D146" s="63"/>
     </row>
@@ -6052,10 +6052,10 @@
         <v>5</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="C147" s="63" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="D147" s="63"/>
     </row>
@@ -6064,7 +6064,7 @@
         <v>33</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="C148" s="71"/>
       <c r="D148" s="71"/>
@@ -6074,10 +6074,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="C149" s="70" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="D149" s="70"/>
     </row>
@@ -6086,10 +6086,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>710</v>
+        <v>1129</v>
       </c>
       <c r="C150" s="67" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="D150" s="67"/>
     </row>
@@ -6098,7 +6098,7 @@
         <v>33</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="C151" s="71"/>
       <c r="D151" s="71"/>
@@ -6108,10 +6108,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C152" s="70" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D152" s="70"/>
     </row>
@@ -6120,10 +6120,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>177</v>
+        <v>1130</v>
       </c>
       <c r="C153" s="67" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="D153" s="67"/>
     </row>
@@ -6132,7 +6132,7 @@
         <v>14</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C154" s="60" t="s">
         <v>23</v>
@@ -6157,7 +6157,7 @@
         <v>34</v>
       </c>
       <c r="C156" s="64" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D156" s="64"/>
     </row>
@@ -6166,10 +6166,10 @@
         <v>5</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C157" s="76" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D157" s="76"/>
     </row>
@@ -6178,10 +6178,10 @@
         <v>5</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C158" s="76" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D158" s="76"/>
     </row>
@@ -6190,10 +6190,10 @@
         <v>5</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C159" s="76" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D159" s="76"/>
     </row>
@@ -6202,10 +6202,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C160" s="76" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="D160" s="76"/>
     </row>
@@ -6214,10 +6214,10 @@
         <v>82</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C161" s="76" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D161" s="76"/>
     </row>
@@ -6226,10 +6226,10 @@
         <v>87</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C162" s="76" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D162" s="76"/>
     </row>
@@ -6238,10 +6238,10 @@
         <v>5</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C163" s="60" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D163" s="60"/>
     </row>
@@ -6250,10 +6250,10 @@
         <v>5</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C164" s="76" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D164" s="76"/>
     </row>
@@ -6262,10 +6262,10 @@
         <v>5</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C165" s="76" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="D165" s="76"/>
     </row>
@@ -6274,34 +6274,34 @@
         <v>5</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C166" s="76" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="D166" s="76"/>
     </row>
     <row r="167" spans="1:4" s="12" customFormat="1">
       <c r="A167" s="12" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C167" s="77" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="D167" s="77"/>
     </row>
     <row r="168" spans="1:4" s="12" customFormat="1">
       <c r="A168" s="12" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C168" s="77" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="D168" s="77"/>
     </row>
@@ -6310,10 +6310,10 @@
         <v>5</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C169" s="76" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="D169" s="76"/>
     </row>
@@ -6322,10 +6322,10 @@
         <v>5</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C170" s="76" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="D170" s="76"/>
     </row>
@@ -6334,10 +6334,10 @@
         <v>5</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C171" s="76" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="D171" s="76"/>
     </row>
@@ -6346,10 +6346,10 @@
         <v>5</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C172" s="76" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="D172" s="76"/>
     </row>
@@ -6358,10 +6358,10 @@
         <v>5</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C173" s="76" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="D173" s="76"/>
     </row>
@@ -6370,10 +6370,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C174" s="76" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="D174" s="76"/>
     </row>
@@ -6382,10 +6382,10 @@
         <v>5</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C175" s="76" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="D175" s="76"/>
     </row>
@@ -6394,10 +6394,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C176" s="76" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="D176" s="76"/>
     </row>
@@ -6406,10 +6406,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C177" s="76" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="D177" s="76"/>
     </row>
@@ -6418,10 +6418,10 @@
         <v>5</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C178" s="76" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="D178" s="76"/>
     </row>
@@ -6430,10 +6430,10 @@
         <v>5</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C179" s="76" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="D179" s="76"/>
     </row>
@@ -6442,10 +6442,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C180" s="76" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D180" s="76"/>
     </row>
@@ -6454,10 +6454,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C181" s="76" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="D181" s="76"/>
     </row>
@@ -6466,10 +6466,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C182" s="76" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="D182" s="76"/>
     </row>
@@ -6478,10 +6478,10 @@
         <v>5</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C183" s="76" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="D183" s="76"/>
     </row>
@@ -6490,22 +6490,22 @@
         <v>92</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C184" s="77" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="D184" s="77"/>
     </row>
     <row r="185" spans="1:4" s="12" customFormat="1" ht="14.4">
       <c r="A185" s="12" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C185" s="78" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="D185" s="78"/>
     </row>
@@ -6514,10 +6514,10 @@
         <v>89</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C186" s="76" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="D186" s="76"/>
     </row>
@@ -6526,10 +6526,10 @@
         <v>5</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C187" s="79" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="D187" s="79"/>
     </row>
@@ -6538,10 +6538,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C188" s="76" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="D188" s="76"/>
     </row>
@@ -6550,10 +6550,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C189" s="76" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="D189" s="76"/>
     </row>
@@ -6562,10 +6562,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C190" s="76" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="D190" s="76"/>
     </row>
@@ -6574,10 +6574,10 @@
         <v>5</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C191" s="76" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="D191" s="76"/>
     </row>
@@ -6586,10 +6586,10 @@
         <v>5</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C192" s="77" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="D192" s="77"/>
     </row>
@@ -6598,10 +6598,10 @@
         <v>5</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C193" s="76" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="D193" s="76"/>
     </row>
@@ -6610,10 +6610,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C194" s="76" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="D194" s="76"/>
     </row>
@@ -6622,10 +6622,10 @@
         <v>5</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C195" s="80" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="D195" s="80"/>
     </row>
@@ -6634,10 +6634,10 @@
         <v>5</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C196" s="76" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="D196" s="76"/>
     </row>
@@ -6646,10 +6646,10 @@
         <v>5</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C197" s="76" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="D197" s="76"/>
     </row>
@@ -6658,10 +6658,10 @@
         <v>5</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C198" s="76" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="D198" s="76"/>
     </row>
@@ -6670,10 +6670,10 @@
         <v>5</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C199" s="76" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="D199" s="76"/>
     </row>
@@ -6682,10 +6682,10 @@
         <v>5</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C200" s="76" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="D200" s="76"/>
     </row>
@@ -6694,10 +6694,10 @@
         <v>5</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C201" s="76" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="D201" s="76"/>
     </row>
@@ -6706,10 +6706,10 @@
         <v>5</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C202" s="76" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="D202" s="76"/>
     </row>
@@ -6718,10 +6718,10 @@
         <v>5</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C203" s="76" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="D203" s="76"/>
     </row>
@@ -6730,10 +6730,10 @@
         <v>5</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C204" s="76" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="D204" s="76"/>
     </row>
@@ -6742,10 +6742,10 @@
         <v>5</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C205" s="76" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="D205" s="76"/>
     </row>
@@ -6754,10 +6754,10 @@
         <v>4</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C206" s="70" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="D206" s="70"/>
     </row>
@@ -6766,10 +6766,10 @@
         <v>4</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>127</v>
+        <v>1131</v>
       </c>
       <c r="C207" s="67" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
       <c r="D207" s="67"/>
     </row>
@@ -6778,7 +6778,7 @@
         <v>14</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C208" s="60" t="s">
         <v>23</v>
@@ -6803,7 +6803,7 @@
         <v>51</v>
       </c>
       <c r="C210" s="81" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D210" s="81"/>
     </row>
@@ -6812,10 +6812,10 @@
         <v>5</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C211" s="61" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D211" s="61"/>
     </row>
@@ -6824,10 +6824,10 @@
         <v>5</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C212" s="61" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D212" s="61"/>
     </row>
@@ -6836,10 +6836,10 @@
         <v>5</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C213" s="61" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D213" s="61"/>
     </row>
@@ -6848,10 +6848,10 @@
         <v>5</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C214" s="61" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D214" s="61"/>
     </row>
@@ -6860,10 +6860,10 @@
         <v>5</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C215" s="61" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D215" s="61"/>
     </row>
@@ -6872,10 +6872,10 @@
         <v>4</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C216" s="67" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D216" s="67"/>
     </row>
@@ -6884,10 +6884,10 @@
         <v>4</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>129</v>
+        <v>1132</v>
       </c>
       <c r="C217" s="67" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
       <c r="D217" s="67"/>
     </row>
@@ -6896,7 +6896,7 @@
         <v>14</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C218" s="60" t="s">
         <v>23</v>
@@ -6930,10 +6930,10 @@
         <v>5</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C221" s="76" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D221" s="76"/>
     </row>
@@ -6942,10 +6942,10 @@
         <v>5</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C222" s="76" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D222" s="76"/>
     </row>
@@ -6954,10 +6954,10 @@
         <v>5</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C223" s="76" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D223" s="76"/>
     </row>
@@ -6966,10 +6966,10 @@
         <v>5</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C224" s="76" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D224" s="76"/>
     </row>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C225" s="76" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D225" s="76"/>
     </row>
@@ -6990,10 +6990,10 @@
         <v>5</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C226" s="76" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D226" s="76"/>
     </row>
@@ -7002,10 +7002,10 @@
         <v>5</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C227" s="76" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D227" s="76"/>
     </row>
@@ -7014,10 +7014,10 @@
         <v>5</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C228" s="76" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D228" s="76"/>
     </row>
@@ -7026,10 +7026,10 @@
         <v>5</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C229" s="76" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D229" s="76"/>
     </row>
@@ -7038,10 +7038,10 @@
         <v>5</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C230" s="76" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D230" s="76"/>
     </row>
@@ -7050,10 +7050,10 @@
         <v>5</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C231" s="76" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D231" s="76"/>
     </row>
@@ -7062,10 +7062,10 @@
         <v>5</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C232" s="76" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D232" s="76"/>
     </row>
@@ -7074,10 +7074,10 @@
         <v>5</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C233" s="76" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D233" s="76"/>
     </row>
@@ -7086,10 +7086,10 @@
         <v>5</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C234" s="76" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D234" s="76"/>
     </row>
@@ -7098,10 +7098,10 @@
         <v>5</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C235" s="76" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D235" s="76"/>
     </row>
@@ -7110,10 +7110,10 @@
         <v>5</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C236" s="76" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D236" s="76"/>
     </row>
@@ -7122,10 +7122,10 @@
         <v>5</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C237" s="76" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D237" s="76"/>
     </row>
@@ -7134,10 +7134,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C238" s="76" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D238" s="76"/>
     </row>
@@ -7146,10 +7146,10 @@
         <v>5</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C239" s="76" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D239" s="76"/>
     </row>
@@ -7158,10 +7158,10 @@
         <v>5</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C240" s="76" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="D240" s="76"/>
     </row>
@@ -7170,10 +7170,10 @@
         <v>5</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C241" s="76" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="D241" s="76"/>
     </row>
@@ -7182,10 +7182,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C242" s="76" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D242" s="76"/>
     </row>
@@ -7194,10 +7194,10 @@
         <v>5</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C243" s="76" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D243" s="76"/>
     </row>
@@ -7206,10 +7206,10 @@
         <v>5</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C244" s="76" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D244" s="76"/>
     </row>
@@ -7218,10 +7218,10 @@
         <v>5</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C245" s="76" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="D245" s="76"/>
     </row>
@@ -7230,10 +7230,10 @@
         <v>5</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C246" s="76" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D246" s="76"/>
     </row>
@@ -7242,10 +7242,10 @@
         <v>5</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C247" s="76" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D247" s="76"/>
     </row>
@@ -7254,10 +7254,10 @@
         <v>5</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C248" s="76" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D248" s="76"/>
     </row>
@@ -7266,10 +7266,10 @@
         <v>5</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C249" s="76" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D249" s="76"/>
     </row>
@@ -7278,10 +7278,10 @@
         <v>5</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C250" s="76" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D250" s="76"/>
     </row>
@@ -7290,10 +7290,10 @@
         <v>5</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C251" s="76" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D251" s="76"/>
     </row>
@@ -7302,10 +7302,10 @@
         <v>5</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C252" s="76" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D252" s="76"/>
     </row>
@@ -7314,10 +7314,10 @@
         <v>5</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C253" s="76" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D253" s="76"/>
     </row>
@@ -7326,10 +7326,10 @@
         <v>5</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C254" s="76" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="D254" s="76"/>
     </row>
@@ -7338,10 +7338,10 @@
         <v>4</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="C255" s="70" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D255" s="70"/>
     </row>
@@ -7350,10 +7350,10 @@
         <v>4</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>505</v>
+        <v>1133</v>
       </c>
       <c r="C256" s="67" t="s">
-        <v>1133</v>
+        <v>1112</v>
       </c>
       <c r="D256" s="67"/>
     </row>
@@ -7362,7 +7362,7 @@
         <v>14</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C257" s="60" t="s">
         <v>23</v>
@@ -7401,7 +7401,7 @@
         <v>55</v>
       </c>
       <c r="C260" s="76" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D260" s="76"/>
     </row>
@@ -7410,10 +7410,10 @@
         <v>5</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C261" s="76" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D261" s="76"/>
     </row>
@@ -7422,10 +7422,10 @@
         <v>5</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C262" s="76" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D262" s="76"/>
     </row>
@@ -7434,10 +7434,10 @@
         <v>5</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C263" s="76" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D263" s="76"/>
     </row>
@@ -7446,10 +7446,10 @@
         <v>5</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C264" s="76" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D264" s="76"/>
     </row>
@@ -7458,10 +7458,10 @@
         <v>5</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C265" s="76" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D265" s="76"/>
     </row>
@@ -7470,10 +7470,10 @@
         <v>5</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C266" s="76" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D266" s="76"/>
     </row>
@@ -7482,10 +7482,10 @@
         <v>5</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C267" s="76" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D267" s="76"/>
     </row>
@@ -7494,10 +7494,10 @@
         <v>5</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C268" s="76" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D268" s="76"/>
     </row>
@@ -7506,10 +7506,10 @@
         <v>5</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C269" s="76" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D269" s="76"/>
     </row>
@@ -7518,10 +7518,10 @@
         <v>5</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C270" s="76" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D270" s="76"/>
     </row>
@@ -7530,10 +7530,10 @@
         <v>5</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C271" s="76" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D271" s="76"/>
     </row>
@@ -7542,10 +7542,10 @@
         <v>5</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C272" s="76" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D272" s="76"/>
     </row>
@@ -7554,10 +7554,10 @@
         <v>5</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C273" s="76" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="D273" s="76"/>
     </row>
@@ -7566,10 +7566,10 @@
         <v>5</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C274" s="76" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="D274" s="76"/>
     </row>
@@ -7578,10 +7578,10 @@
         <v>5</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C275" s="76" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="D275" s="76"/>
     </row>
@@ -7590,10 +7590,10 @@
         <v>5</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C276" s="76" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="D276" s="76"/>
     </row>
@@ -7602,10 +7602,10 @@
         <v>5</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C277" s="76" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="D277" s="76"/>
     </row>
@@ -7614,10 +7614,10 @@
         <v>5</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C278" s="76" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="D278" s="76"/>
     </row>
@@ -7626,10 +7626,10 @@
         <v>5</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C279" s="76" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="D279" s="76"/>
     </row>
@@ -7638,10 +7638,10 @@
         <v>5</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C280" s="76" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="D280" s="76"/>
     </row>
@@ -7650,10 +7650,10 @@
         <v>5</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C281" s="76" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="D281" s="76"/>
     </row>
@@ -7662,10 +7662,10 @@
         <v>5</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C282" s="76" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="D282" s="76"/>
     </row>
@@ -7674,10 +7674,10 @@
         <v>5</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C283" s="76" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="D283" s="76"/>
     </row>
@@ -7686,10 +7686,10 @@
         <v>5</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C284" s="76" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="D284" s="76"/>
     </row>
@@ -7698,10 +7698,10 @@
         <v>5</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C285" s="76" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="D285" s="76"/>
     </row>
@@ -7710,10 +7710,10 @@
         <v>5</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C286" s="76" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="D286" s="76"/>
     </row>
@@ -7722,10 +7722,10 @@
         <v>5</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C287" s="76" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="D287" s="76"/>
     </row>
@@ -7734,10 +7734,10 @@
         <v>5</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C288" s="76" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="D288" s="76"/>
     </row>
@@ -7746,10 +7746,10 @@
         <v>5</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C289" s="76" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="D289" s="76"/>
     </row>
@@ -7758,10 +7758,10 @@
         <v>5</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C290" s="76" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="D290" s="76"/>
     </row>
@@ -7770,10 +7770,10 @@
         <v>5</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C291" s="76" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="D291" s="76"/>
     </row>
@@ -7782,10 +7782,10 @@
         <v>5</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C292" s="76" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="D292" s="76"/>
     </row>
@@ -7794,10 +7794,10 @@
         <v>5</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C293" s="76" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="D293" s="76"/>
     </row>
@@ -7806,10 +7806,10 @@
         <v>5</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C294" s="76" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="D294" s="76"/>
     </row>
@@ -7818,10 +7818,10 @@
         <v>5</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C295" s="76" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="D295" s="76"/>
     </row>
@@ -7830,10 +7830,10 @@
         <v>5</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C296" s="76" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="D296" s="76"/>
     </row>
@@ -7842,10 +7842,10 @@
         <v>5</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C297" s="76" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="D297" s="76"/>
     </row>
@@ -7854,10 +7854,10 @@
         <v>5</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C298" s="76" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="D298" s="76"/>
     </row>
@@ -7866,10 +7866,10 @@
         <v>5</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C299" s="76" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="D299" s="76"/>
     </row>
@@ -7878,10 +7878,10 @@
         <v>4</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C300" s="70" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D300" s="70"/>
     </row>
@@ -7890,10 +7890,10 @@
         <v>4</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>131</v>
+        <v>1134</v>
       </c>
       <c r="C301" s="67" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
       <c r="D301" s="67"/>
     </row>
@@ -7902,7 +7902,7 @@
         <v>14</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C302" s="60" t="s">
         <v>23</v>
@@ -7924,10 +7924,10 @@
         <v>32</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C304" s="83" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D304" s="83"/>
     </row>
@@ -7936,34 +7936,34 @@
         <v>5</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C305" s="76" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D305" s="76"/>
     </row>
     <row r="306" spans="1:4" s="11" customFormat="1">
       <c r="A306" s="12" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C306" s="77" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="D306" s="77"/>
     </row>
     <row r="307" spans="1:4" s="11" customFormat="1">
       <c r="A307" s="12" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C307" s="77" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D307" s="77"/>
     </row>
@@ -7972,70 +7972,70 @@
         <v>5</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C308" s="77" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="D308" s="77"/>
     </row>
     <row r="309" spans="1:4" s="11" customFormat="1">
       <c r="A309" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C309" s="77" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="D309" s="77"/>
     </row>
     <row r="310" spans="1:4" s="11" customFormat="1">
       <c r="A310" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C310" s="77" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D310" s="77"/>
     </row>
     <row r="311" spans="1:4" s="11" customFormat="1">
       <c r="A311" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C311" s="77" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="D311" s="77"/>
     </row>
     <row r="312" spans="1:4" s="11" customFormat="1">
       <c r="A312" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C312" s="84" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D312" s="84"/>
     </row>
     <row r="313" spans="1:4" s="11" customFormat="1">
       <c r="A313" s="12" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C313" s="84" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="D313" s="84"/>
     </row>
@@ -8044,10 +8044,10 @@
         <v>5</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C314" s="77" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D314" s="77"/>
     </row>
@@ -8056,10 +8056,10 @@
         <v>5</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C315" s="77" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D315" s="77"/>
     </row>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C316" s="77" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="D316" s="77"/>
     </row>
@@ -8080,10 +8080,10 @@
         <v>5</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C317" s="77" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="D317" s="77"/>
     </row>
@@ -8092,10 +8092,10 @@
         <v>92</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C318" s="84" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D318" s="84"/>
     </row>
@@ -8104,10 +8104,10 @@
         <v>95</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C319" s="77" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D319" s="77"/>
     </row>
@@ -8116,10 +8116,10 @@
         <v>5</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C320" s="77" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="D320" s="77"/>
     </row>
@@ -8128,46 +8128,46 @@
         <v>5</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C321" s="77" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="D321" s="77"/>
     </row>
     <row r="322" spans="1:4" s="12" customFormat="1">
       <c r="A322" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C322" s="77" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="D322" s="77"/>
     </row>
     <row r="323" spans="1:4" s="12" customFormat="1">
       <c r="A323" s="12" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="C323" s="77" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D323" s="77"/>
     </row>
     <row r="324" spans="1:4" s="12" customFormat="1">
       <c r="A324" s="12" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="C324" s="77" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="D324" s="77"/>
     </row>
@@ -8176,10 +8176,10 @@
         <v>4</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="D325" s="70"/>
     </row>
@@ -8188,10 +8188,10 @@
         <v>4</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>165</v>
+        <v>1135</v>
       </c>
       <c r="C326" s="67" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
       <c r="D326" s="67"/>
     </row>
@@ -8200,7 +8200,7 @@
         <v>14</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C327" s="60" t="s">
         <v>23</v>
@@ -8212,7 +8212,7 @@
         <v>33</v>
       </c>
       <c r="B328" s="22" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C328" s="85"/>
       <c r="D328" s="85"/>
@@ -8222,10 +8222,10 @@
         <v>32</v>
       </c>
       <c r="B329" s="25" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C329" s="82" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D329" s="82"/>
     </row>
@@ -8234,10 +8234,10 @@
         <v>5</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C330" s="60" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D330" s="60"/>
     </row>
@@ -8246,10 +8246,10 @@
         <v>4</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C331" s="70" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D331" s="70"/>
     </row>
@@ -8258,10 +8258,10 @@
         <v>4</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>422</v>
+        <v>1136</v>
       </c>
       <c r="C332" s="67" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
       <c r="D332" s="67"/>
     </row>
@@ -8270,10 +8270,10 @@
         <v>32</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C333" s="69" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D333" s="69"/>
     </row>
@@ -8282,10 +8282,10 @@
         <v>5</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C334" s="60" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D334" s="60"/>
     </row>
@@ -8294,10 +8294,10 @@
         <v>5</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C335" s="60" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D335" s="60"/>
     </row>
@@ -8306,10 +8306,10 @@
         <v>5</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C336" s="60" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D336" s="60"/>
     </row>
@@ -8318,10 +8318,10 @@
         <v>4</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C337" s="70" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D337" s="70"/>
     </row>
@@ -8330,10 +8330,10 @@
         <v>4</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>434</v>
+        <v>1137</v>
       </c>
       <c r="C338" s="67" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="D338" s="67"/>
     </row>
@@ -8342,7 +8342,7 @@
         <v>33</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C339" s="69" t="s">
         <v>29</v>
@@ -8354,10 +8354,10 @@
         <v>32</v>
       </c>
       <c r="B340" s="22" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C340" s="72" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D340" s="72"/>
     </row>
@@ -8366,10 +8366,10 @@
         <v>5</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C341" s="60" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D341" s="60"/>
     </row>
@@ -8378,10 +8378,10 @@
         <v>5</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C342" s="60" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D342" s="60"/>
     </row>
@@ -8390,10 +8390,10 @@
         <v>5</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C343" s="60" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D343" s="60"/>
     </row>
@@ -8402,10 +8402,10 @@
         <v>4</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C344" s="70" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D344" s="70"/>
     </row>
@@ -8414,10 +8414,10 @@
         <v>4</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>446</v>
+        <v>1138</v>
       </c>
       <c r="C345" s="67" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
       <c r="D345" s="67"/>
     </row>
@@ -8426,7 +8426,7 @@
         <v>33</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C346" s="72" t="s">
         <v>29</v>
@@ -8438,10 +8438,10 @@
         <v>32</v>
       </c>
       <c r="B347" s="28" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C347" s="86" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D347" s="86"/>
     </row>
@@ -8450,10 +8450,10 @@
         <v>5</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C348" s="60" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D348" s="60"/>
     </row>
@@ -8462,10 +8462,10 @@
         <v>5</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C349" s="60" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D349" s="60"/>
     </row>
@@ -8474,10 +8474,10 @@
         <v>4</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C350" s="70" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D350" s="70"/>
     </row>
@@ -8486,10 +8486,10 @@
         <v>4</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>456</v>
+        <v>1139</v>
       </c>
       <c r="C351" s="67" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
       <c r="D351" s="67"/>
     </row>
@@ -8498,7 +8498,7 @@
         <v>33</v>
       </c>
       <c r="B352" s="28" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C352" s="86" t="s">
         <v>29</v>
@@ -8510,10 +8510,10 @@
         <v>32</v>
       </c>
       <c r="B353" s="29" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C353" s="87" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D353" s="87"/>
     </row>
@@ -8522,10 +8522,10 @@
         <v>5</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C354" s="60" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D354" s="60"/>
     </row>
@@ -8534,10 +8534,10 @@
         <v>5</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C355" s="60" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D355" s="60"/>
     </row>
@@ -8546,10 +8546,10 @@
         <v>5</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C356" s="60" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D356" s="60"/>
     </row>
@@ -8558,10 +8558,10 @@
         <v>4</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D357" s="70"/>
     </row>
@@ -8570,10 +8570,10 @@
         <v>4</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>468</v>
+        <v>1140</v>
       </c>
       <c r="C358" s="67" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
       <c r="D358" s="67"/>
     </row>
@@ -8582,7 +8582,7 @@
         <v>33</v>
       </c>
       <c r="B359" s="29" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C359" s="87" t="s">
         <v>29</v>
@@ -8594,10 +8594,10 @@
         <v>32</v>
       </c>
       <c r="B360" s="30" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="C360" s="88" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D360" s="88"/>
     </row>
@@ -8606,10 +8606,10 @@
         <v>5</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C361" s="60" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D361" s="60"/>
     </row>
@@ -8618,10 +8618,10 @@
         <v>5</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C362" s="60" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D362" s="60"/>
     </row>
@@ -8630,10 +8630,10 @@
         <v>4</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C363" s="70" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D363" s="70"/>
     </row>
@@ -8642,10 +8642,10 @@
         <v>4</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>478</v>
+        <v>1141</v>
       </c>
       <c r="C364" s="67" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="D364" s="67"/>
     </row>
@@ -8654,7 +8654,7 @@
         <v>33</v>
       </c>
       <c r="B365" s="30" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C365" s="88" t="s">
         <v>29</v>
@@ -8666,10 +8666,10 @@
         <v>32</v>
       </c>
       <c r="B366" s="19" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C366" s="68" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="D366" s="68"/>
     </row>
@@ -8678,10 +8678,10 @@
         <v>5</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C367" s="60" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="D367" s="60"/>
     </row>
@@ -8690,10 +8690,10 @@
         <v>5</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="C368" s="60" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="D368" s="60"/>
     </row>
@@ -8702,10 +8702,10 @@
         <v>5</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="C369" s="60" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="D369" s="60"/>
     </row>
@@ -8714,10 +8714,10 @@
         <v>4</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C370" s="70" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="D370" s="70"/>
     </row>
@@ -8726,10 +8726,10 @@
         <v>4</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>483</v>
+        <v>1142</v>
       </c>
       <c r="C371" s="67" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="D371" s="67"/>
     </row>
@@ -8738,10 +8738,10 @@
         <v>33</v>
       </c>
       <c r="B372" s="19" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C372" s="68" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D372" s="68"/>
     </row>
@@ -8750,10 +8750,10 @@
         <v>32</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="D373" s="89"/>
     </row>
@@ -8762,10 +8762,10 @@
         <v>5</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C374" s="60" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="D374" s="60"/>
     </row>
@@ -8774,10 +8774,10 @@
         <v>5</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C375" s="60" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="D375" s="60"/>
     </row>
@@ -8786,10 +8786,10 @@
         <v>5</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C376" s="60" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="D376" s="60"/>
     </row>
@@ -8798,10 +8798,10 @@
         <v>5</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="C377" s="60" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="D377" s="60"/>
     </row>
@@ -8810,10 +8810,10 @@
         <v>5</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="C378" s="60" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="D378" s="60"/>
     </row>
@@ -8822,10 +8822,10 @@
         <v>5</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="C379" s="60" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="D379" s="60"/>
     </row>
@@ -8834,10 +8834,10 @@
         <v>4</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C380" s="70" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="D380" s="70"/>
     </row>
@@ -8846,10 +8846,10 @@
         <v>4</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>491</v>
+        <v>1143</v>
       </c>
       <c r="C381" s="67" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="D381" s="67"/>
     </row>
@@ -8858,7 +8858,7 @@
         <v>33</v>
       </c>
       <c r="B382" s="23" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C382" s="89"/>
       <c r="D382" s="89"/>
@@ -8868,10 +8868,10 @@
         <v>4</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C383" s="70" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="D383" s="70"/>
     </row>
@@ -8880,10 +8880,10 @@
         <v>4</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>495</v>
+        <v>1144</v>
       </c>
       <c r="C384" s="67" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="D384" s="67"/>
     </row>
@@ -8892,7 +8892,7 @@
         <v>14</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="C385" s="60" t="s">
         <v>23</v>
@@ -8917,7 +8917,7 @@
         <v>35</v>
       </c>
       <c r="C387" s="69" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D387" s="69"/>
     </row>
@@ -8929,7 +8929,7 @@
         <v>37</v>
       </c>
       <c r="C388" s="60" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="D388" s="60"/>
     </row>
@@ -8941,7 +8941,7 @@
         <v>59</v>
       </c>
       <c r="C389" s="60" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="D389" s="60"/>
     </row>
@@ -8953,7 +8953,7 @@
         <v>60</v>
       </c>
       <c r="C390" s="60" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="D390" s="60"/>
     </row>
@@ -8965,7 +8965,7 @@
         <v>65</v>
       </c>
       <c r="C391" s="60" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="D391" s="60"/>
     </row>
@@ -8977,7 +8977,7 @@
         <v>61</v>
       </c>
       <c r="C392" s="60" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="D392" s="60"/>
     </row>
@@ -8989,7 +8989,7 @@
         <v>62</v>
       </c>
       <c r="C393" s="60" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="D393" s="60"/>
     </row>
@@ -9001,7 +9001,7 @@
         <v>63</v>
       </c>
       <c r="C394" s="60" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D394" s="60"/>
     </row>
@@ -9013,7 +9013,7 @@
         <v>66</v>
       </c>
       <c r="C395" s="60" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D395" s="60"/>
     </row>
@@ -9025,7 +9025,7 @@
         <v>64</v>
       </c>
       <c r="C396" s="60" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D396" s="60"/>
     </row>
@@ -9034,10 +9034,10 @@
         <v>5</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C397" s="60" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D397" s="60"/>
     </row>
@@ -9046,10 +9046,10 @@
         <v>4</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C398" s="70" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D398" s="70"/>
     </row>
@@ -9058,10 +9058,10 @@
         <v>4</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>218</v>
+        <v>1145</v>
       </c>
       <c r="C399" s="67" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
       <c r="D399" s="67"/>
     </row>
@@ -9070,7 +9070,7 @@
         <v>14</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C400" s="60" t="s">
         <v>23</v>
@@ -9095,7 +9095,7 @@
         <v>36</v>
       </c>
       <c r="C402" s="90" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D402" s="90"/>
     </row>
@@ -9107,7 +9107,7 @@
         <v>38</v>
       </c>
       <c r="C403" s="60" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D403" s="60"/>
     </row>
@@ -9119,7 +9119,7 @@
         <v>39</v>
       </c>
       <c r="C404" s="60" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D404" s="60"/>
     </row>
@@ -9131,7 +9131,7 @@
         <v>40</v>
       </c>
       <c r="C405" s="60" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D405" s="60"/>
     </row>
@@ -9143,7 +9143,7 @@
         <v>41</v>
       </c>
       <c r="C406" s="60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D406" s="60"/>
     </row>
@@ -9155,7 +9155,7 @@
         <v>42</v>
       </c>
       <c r="C407" s="60" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D407" s="60"/>
     </row>
@@ -9167,7 +9167,7 @@
         <v>43</v>
       </c>
       <c r="C408" s="60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D408" s="60"/>
     </row>
@@ -9179,7 +9179,7 @@
         <v>44</v>
       </c>
       <c r="C409" s="60" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D409" s="60"/>
     </row>
@@ -9191,7 +9191,7 @@
         <v>45</v>
       </c>
       <c r="C410" s="60" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D410" s="60"/>
     </row>
@@ -9203,7 +9203,7 @@
         <v>46</v>
       </c>
       <c r="C411" s="60" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D411" s="60"/>
     </row>
@@ -9215,7 +9215,7 @@
         <v>47</v>
       </c>
       <c r="C412" s="60" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D412" s="60"/>
     </row>
@@ -9227,7 +9227,7 @@
         <v>48</v>
       </c>
       <c r="C413" s="91" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D413" s="91"/>
     </row>
@@ -9239,7 +9239,7 @@
         <v>67</v>
       </c>
       <c r="C414" s="60" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D414" s="60"/>
     </row>
@@ -9248,10 +9248,10 @@
         <v>4</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C415" s="70" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D415" s="70"/>
     </row>
@@ -9260,10 +9260,10 @@
         <v>4</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>147</v>
+        <v>1146</v>
       </c>
       <c r="C416" s="67" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="D416" s="67"/>
     </row>
@@ -9272,7 +9272,7 @@
         <v>14</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C417" s="60" t="s">
         <v>23</v>
@@ -9284,7 +9284,7 @@
         <v>33</v>
       </c>
       <c r="B418" s="31" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C418" s="90"/>
       <c r="D418" s="90"/>
@@ -9294,10 +9294,10 @@
         <v>4</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C419" s="70" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="D419" s="70"/>
     </row>
@@ -9306,71 +9306,71 @@
         <v>4</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>238</v>
+        <v>1147</v>
       </c>
       <c r="C420" s="70" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
       <c r="D420" s="70"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C421" s="66" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D421" s="66"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C422" s="66" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D422" s="66"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B423" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B423" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="C423" s="66" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D423" s="66"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="14.4">
@@ -9382,7 +9382,7 @@
       <c r="D430" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t/1tY64FZqcDP3x6R7gVSu10NF7Rk1GBihp6cKw21ADzdS8/f9WJxq2tS9aAZrVW0DoA9Xhvd2I8bigYKc5ZHw==" saltValue="GvPGPfH/BYv0kttW0w3LAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xvXVD7K4ESlcmF+AzWAETBcFYE03Y3IEST3sBy5gx5qqRajUQ0kv8T7kqGc0Eai/0cmc7oGiXffTiENH2t4v9Q==" saltValue="9FmHWqEal40+svUA7XSmmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9420,7 +9420,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -9482,13 +9482,13 @@
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -9496,13 +9496,13 @@
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9527,7 +9527,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9576,13 +9576,13 @@
     </row>
     <row r="20" spans="1:4" s="8" customFormat="1">
       <c r="A20" s="8" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="21" spans="1:4" s="8" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -9605,13 +9605,13 @@
     <row r="22" spans="1:4" s="8" customFormat="1"/>
     <row r="23" spans="1:4" s="8" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
@@ -9619,13 +9619,13 @@
     </row>
     <row r="24" spans="1:4" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -9633,13 +9633,13 @@
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B25" s="8">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -9647,13 +9647,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -9661,13 +9661,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B28" s="8">
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -9675,13 +9675,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B29" s="8">
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -9717,13 +9717,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -9731,13 +9731,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B35" s="8">
         <v>2</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -9817,46 +9817,46 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -9864,13 +9864,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -9878,13 +9878,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -9898,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9909,452 +9909,452 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="E56" s="34"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="E57" s="34"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="E58" s="34"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="E62" s="34"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="E63" s="34"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="E64" s="34"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="E65" s="34"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="E66" s="34"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="E67" s="34"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="E69" s="34"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="E70" s="34"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="E71" s="34"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="E72" s="34"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="E73" s="34"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="E74" s="34"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="E75" s="34"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="E76" s="34"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="E77" s="34"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="E78" s="34"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="E79" s="34"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="E80" s="34"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="E81" s="34"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="E82" s="34"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="E83" s="34"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="E84" s="34"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="E85" s="34"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="E86" s="34"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="E87" s="34"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="E88" s="34"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="E89" s="34"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="E90" s="34"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="13" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="1" customFormat="1">
       <c r="A93" s="3" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="1" customFormat="1">
@@ -10372,13 +10372,13 @@
         <v>27</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J96" s="37"/>
       <c r="K96" s="37"/>
@@ -10388,13 +10388,13 @@
         <v>27</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="C97" s="54" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J97" s="37"/>
       <c r="K97" s="37"/>
@@ -10404,13 +10404,13 @@
         <v>27</v>
       </c>
       <c r="B98" s="53" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="C98" s="55" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J98" s="39"/>
       <c r="K98" s="37"/>
@@ -10420,13 +10420,13 @@
         <v>27</v>
       </c>
       <c r="B99" s="53" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J99" s="37"/>
       <c r="K99" s="37"/>
@@ -10436,13 +10436,13 @@
         <v>27</v>
       </c>
       <c r="B100" s="53" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J100" s="37"/>
       <c r="K100" s="37"/>
@@ -10452,13 +10452,13 @@
         <v>27</v>
       </c>
       <c r="B101" s="53" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J101" s="37"/>
       <c r="K101" s="37"/>
@@ -10468,13 +10468,13 @@
         <v>27</v>
       </c>
       <c r="B102" s="53" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J102" s="37"/>
       <c r="K102" s="37"/>
@@ -10484,13 +10484,13 @@
         <v>27</v>
       </c>
       <c r="B103" s="53" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J103" s="37"/>
       <c r="K103" s="37"/>
@@ -10500,13 +10500,13 @@
         <v>27</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="C104" s="56" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J104" s="41"/>
       <c r="K104" s="37"/>
@@ -10516,13 +10516,13 @@
         <v>27</v>
       </c>
       <c r="B105" s="53" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J105" s="37"/>
       <c r="K105" s="37"/>
@@ -10532,13 +10532,13 @@
         <v>27</v>
       </c>
       <c r="B106" s="53" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J106" s="37"/>
       <c r="K106" s="37"/>
@@ -10548,13 +10548,13 @@
         <v>27</v>
       </c>
       <c r="B107" s="53" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="C107" s="57" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J107" s="37"/>
       <c r="K107" s="37"/>
@@ -10564,13 +10564,13 @@
         <v>27</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J108" s="37"/>
       <c r="K108" s="37"/>
@@ -10580,13 +10580,13 @@
         <v>27</v>
       </c>
       <c r="B109" s="53" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J109" s="37"/>
       <c r="K109" s="37"/>
@@ -10596,13 +10596,13 @@
         <v>27</v>
       </c>
       <c r="B110" s="53" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J110" s="37"/>
       <c r="K110" s="37"/>
@@ -10612,13 +10612,13 @@
         <v>27</v>
       </c>
       <c r="B111" s="53" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J111" s="37"/>
       <c r="K111" s="37"/>
@@ -10628,13 +10628,13 @@
         <v>27</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J112" s="37"/>
       <c r="K112" s="37"/>
@@ -10644,13 +10644,13 @@
         <v>27</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J113" s="37"/>
       <c r="K113" s="37"/>
@@ -10660,13 +10660,13 @@
         <v>27</v>
       </c>
       <c r="B114" s="53" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J114" s="37"/>
       <c r="K114" s="37"/>
@@ -10676,13 +10676,13 @@
         <v>27</v>
       </c>
       <c r="B115" s="53" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J115" s="37"/>
       <c r="K115" s="37"/>
@@ -10692,13 +10692,13 @@
         <v>27</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J116" s="37"/>
       <c r="K116" s="37"/>
@@ -10708,13 +10708,13 @@
         <v>27</v>
       </c>
       <c r="B117" s="53" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J117" s="37"/>
       <c r="K117" s="37"/>
@@ -10724,13 +10724,13 @@
         <v>27</v>
       </c>
       <c r="B118" s="53" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J118" s="37"/>
       <c r="K118" s="37"/>
@@ -10740,13 +10740,13 @@
         <v>27</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
       <c r="J119" s="37"/>
       <c r="K119" s="37"/>
@@ -10773,17 +10773,17 @@
     </row>
     <row r="124" spans="1:11" ht="15.6">
       <c r="A124" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="D124" s="13"/>
       <c r="F124" s="51" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="H124" s="36"/>
       <c r="J124" s="37"/>
@@ -10791,17 +10791,17 @@
     </row>
     <row r="125" spans="1:11" ht="15.6">
       <c r="A125" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D125" s="13"/>
       <c r="F125" s="51" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="H125" s="36"/>
       <c r="J125" s="37"/>
@@ -10809,993 +10809,993 @@
     </row>
     <row r="126" spans="1:11" ht="15.6">
       <c r="A126" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="D126" s="13"/>
       <c r="F126" s="51" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="H126" s="36"/>
     </row>
     <row r="127" spans="1:11" ht="15.6">
       <c r="A127" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="D127" s="13"/>
       <c r="F127" s="51" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="H127" s="36"/>
     </row>
     <row r="128" spans="1:11" ht="15.6">
       <c r="A128" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B128" s="42" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="D128" s="13"/>
       <c r="F128" s="51" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="H128" s="36"/>
     </row>
     <row r="129" spans="1:8" ht="15.6">
       <c r="A129" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="D129" s="13"/>
       <c r="F129" s="51" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="H129" s="36"/>
     </row>
     <row r="130" spans="1:8" ht="15.6">
       <c r="A130" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="D130" s="13"/>
       <c r="F130" s="51" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="H130" s="36"/>
     </row>
     <row r="131" spans="1:8" ht="15.6">
       <c r="A131" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B131" s="42" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="D131" s="13"/>
       <c r="F131" s="51" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="H131" s="36"/>
     </row>
     <row r="132" spans="1:8" ht="15.6">
       <c r="A132" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B132" s="42" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="C132" s="45" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="D132" s="13"/>
       <c r="F132" s="51" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="H132" s="44"/>
     </row>
     <row r="133" spans="1:8" ht="15.6">
       <c r="A133" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="C133" s="45" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="51" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="H133" s="38"/>
     </row>
     <row r="134" spans="1:8" ht="15.6">
       <c r="A134" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="C134" s="45" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="D134" s="13"/>
       <c r="F134" s="51" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="H134" s="38"/>
     </row>
     <row r="135" spans="1:8" ht="15.6">
       <c r="A135" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B135" s="42" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="C135" s="45" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="D135" s="13"/>
       <c r="F135" s="51" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="H135" s="38"/>
     </row>
     <row r="136" spans="1:8" ht="15.6">
       <c r="A136" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="C136" s="43" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="D136" s="13"/>
       <c r="F136" s="51" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="H136" s="36"/>
     </row>
     <row r="137" spans="1:8" ht="15.6">
       <c r="A137" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="D137" s="13"/>
       <c r="F137" s="51" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="H137" s="36"/>
     </row>
     <row r="138" spans="1:8" ht="15.6">
       <c r="A138" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="D138" s="13"/>
       <c r="F138" s="51" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="H138" s="36"/>
     </row>
     <row r="139" spans="1:8" ht="15.6">
       <c r="A139" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B139" s="42" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="D139" s="13"/>
       <c r="F139" s="51" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="H139" s="36"/>
     </row>
     <row r="140" spans="1:8" ht="15.6">
       <c r="A140" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="C140" s="46" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="D140" s="13"/>
       <c r="F140" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H140" s="36"/>
     </row>
     <row r="141" spans="1:8" ht="15.6">
       <c r="A141" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B141" s="42" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="C141" s="46" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="D141" s="13"/>
       <c r="F141" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H141" s="36"/>
     </row>
     <row r="142" spans="1:8" ht="15.6">
       <c r="A142" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B142" s="42" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="C142" s="46" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="D142" s="13"/>
       <c r="F142" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H142" s="36"/>
     </row>
     <row r="143" spans="1:8" ht="15.6">
       <c r="A143" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B143" s="42" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="C143" s="46" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="D143" s="13"/>
       <c r="F143" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H143" s="36"/>
     </row>
     <row r="144" spans="1:8" ht="15.6">
       <c r="A144" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B144" s="42" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="C144" s="46" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="D144" s="13"/>
       <c r="F144" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H144" s="36"/>
     </row>
     <row r="145" spans="1:8" ht="15.6">
       <c r="A145" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B145" s="42" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="C145" s="46" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="D145" s="13"/>
       <c r="F145" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H145" s="36"/>
     </row>
     <row r="146" spans="1:8" ht="15.6">
       <c r="A146" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="C146" s="46" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="D146" s="13"/>
       <c r="F146" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H146" s="36"/>
     </row>
     <row r="147" spans="1:8" ht="15.6">
       <c r="A147" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="C147" s="46" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="D147" s="13"/>
       <c r="F147" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H147" s="36"/>
     </row>
     <row r="148" spans="1:8" ht="15.6">
       <c r="A148" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B148" s="42" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="C148" s="46" t="s">
-        <v>1035</v>
+        <v>1014</v>
       </c>
       <c r="D148" s="13"/>
       <c r="F148" s="51" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="H148" s="36"/>
     </row>
     <row r="149" spans="1:8" ht="15.6">
       <c r="A149" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="D149" s="13"/>
       <c r="F149" s="51" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="H149" s="38"/>
     </row>
     <row r="150" spans="1:8" ht="15.6">
       <c r="A150" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="D150" s="13"/>
       <c r="F150" s="51" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="H150" s="38"/>
     </row>
     <row r="151" spans="1:8" ht="15.6">
       <c r="A151" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B151" s="42" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="D151" s="13"/>
       <c r="F151" s="51" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="H151" s="38"/>
     </row>
     <row r="152" spans="1:8" ht="15.6">
       <c r="A152" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B152" s="42" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="D152" s="13"/>
       <c r="F152" s="51" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="H152" s="38"/>
     </row>
     <row r="153" spans="1:8" ht="15.6">
       <c r="A153" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="D153" s="13"/>
       <c r="F153" s="51" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="H153" s="38"/>
     </row>
     <row r="154" spans="1:8" ht="15.6">
       <c r="A154" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B154" s="42" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
       <c r="D154" s="13"/>
       <c r="F154" s="51" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="H154" s="36"/>
     </row>
     <row r="155" spans="1:8" ht="15.6">
       <c r="A155" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B155" s="42" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="D155" s="13"/>
       <c r="F155" s="51" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="H155" s="36"/>
     </row>
     <row r="156" spans="1:8" ht="15.6">
       <c r="A156" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B156" s="42" t="s">
-        <v>1050</v>
+        <v>1029</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="D156" s="13"/>
       <c r="F156" s="51" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="H156" s="36"/>
     </row>
     <row r="157" spans="1:8" ht="15.6">
       <c r="A157" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B157" s="42" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="D157" s="13"/>
       <c r="F157" s="51" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="H157" s="36"/>
     </row>
     <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B158" s="42" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="D158" s="13"/>
       <c r="F158" s="51" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="H158" s="36"/>
     </row>
     <row r="159" spans="1:8" ht="15.6">
       <c r="A159" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B159" s="42" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="D159" s="13"/>
       <c r="F159" s="51" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="H159" s="36"/>
     </row>
     <row r="160" spans="1:8" ht="15.6">
       <c r="A160" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B160" s="42" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="C160" s="50" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="D160" s="13"/>
       <c r="F160" s="51" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="H160" s="38"/>
     </row>
     <row r="161" spans="1:8" ht="15.6">
       <c r="A161" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B161" s="42" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="D161" s="13"/>
       <c r="F161" s="51" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="H161" s="38"/>
     </row>
     <row r="162" spans="1:8" ht="15.6">
       <c r="A162" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="D162" s="13"/>
       <c r="F162" s="51" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="H162" s="40"/>
     </row>
     <row r="163" spans="1:8" ht="15.6">
       <c r="A163" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="D163" s="13"/>
       <c r="F163" s="51" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="H163" s="38"/>
     </row>
     <row r="164" spans="1:8" ht="15.6">
       <c r="A164" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B164" s="42" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="D164" s="13"/>
       <c r="F164" s="51" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="H164" s="38"/>
     </row>
     <row r="165" spans="1:8" ht="15.6">
       <c r="A165" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="D165" s="13"/>
       <c r="F165" s="51" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="H165" s="38"/>
     </row>
     <row r="166" spans="1:8" ht="15.6">
       <c r="A166" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B166" s="42" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="C166" s="49" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="D166" s="13"/>
       <c r="F166" s="51" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="H166" s="36"/>
     </row>
     <row r="167" spans="1:8" ht="15.6">
       <c r="A167" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B167" s="42" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="C167" s="46" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="D167" s="13"/>
       <c r="F167" s="51" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="H167" s="36"/>
     </row>
     <row r="168" spans="1:8" ht="15.6">
       <c r="A168" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B168" s="42" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="C168" s="49" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
       <c r="D168" s="13"/>
       <c r="F168" s="51" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="H168" s="36"/>
     </row>
     <row r="169" spans="1:8" ht="15.6">
       <c r="A169" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="C169" s="46" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="D169" s="13"/>
       <c r="F169" s="51" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="H169" s="36"/>
     </row>
     <row r="170" spans="1:8" ht="15.6">
       <c r="A170" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="C170" s="49" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="D170" s="13"/>
       <c r="F170" s="51" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="H170" s="36"/>
     </row>
     <row r="171" spans="1:8" ht="15.6">
       <c r="A171" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="C171" s="43" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
       <c r="D171" s="13"/>
       <c r="F171" s="51" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="H171" s="38"/>
     </row>
     <row r="172" spans="1:8" ht="15.6">
       <c r="A172" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B172" s="42" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="C172" s="43" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="D172" s="13"/>
       <c r="F172" s="51" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="H172" s="38"/>
     </row>
     <row r="173" spans="1:8" ht="15.6">
       <c r="A173" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="C173" s="43" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="D173" s="13"/>
       <c r="F173" s="51" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="H173" s="38"/>
     </row>
     <row r="174" spans="1:8" ht="15.6">
       <c r="A174" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="C174" s="50" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="D174" s="13"/>
       <c r="F174" s="51" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="H174" s="38"/>
     </row>
     <row r="175" spans="1:8" ht="15.6">
       <c r="A175" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B175" s="42" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="C175" s="45" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
       <c r="D175" s="13"/>
       <c r="F175" s="51" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="H175" s="36"/>
     </row>
     <row r="176" spans="1:8" ht="15.6">
       <c r="A176" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="C176" s="45" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
       <c r="D176" s="13"/>
       <c r="F176" s="51" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="H176" s="36"/>
     </row>
     <row r="177" spans="1:8" ht="15.6">
       <c r="A177" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B177" s="42" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="C177" s="45" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="D177" s="13"/>
       <c r="F177" s="51" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="H177" s="44"/>
     </row>
     <row r="178" spans="1:8" ht="15.6">
       <c r="A178" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B178" s="42" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="D178" s="13"/>
       <c r="F178" s="51" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="H178" s="36"/>
     </row>
     <row r="179" spans="1:8" ht="15.6">
       <c r="A179" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="D179" s="13"/>
       <c r="F179" s="51" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="H179" s="36"/>
     </row>
     <row r="180" spans="1:8" ht="15.6">
       <c r="A180" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="D180" s="13"/>
       <c r="F180" s="51" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="H180" s="36"/>
     </row>
     <row r="181" spans="1:8" ht="15.6">
       <c r="A181" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B181" s="42" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="C181" s="50" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="D181" s="13"/>
       <c r="F181" s="51" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="H181" s="36"/>
     </row>
     <row r="182" spans="1:8" ht="15.6">
       <c r="A182" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
       <c r="C182" s="50" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="D182" s="13"/>
       <c r="F182" s="51" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="H182" s="36"/>
     </row>
     <row r="183" spans="1:8" ht="15.6">
       <c r="A183" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="C183" s="50" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
       <c r="D183" s="13"/>
       <c r="F183" s="51" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="H183" s="36"/>
     </row>
     <row r="184" spans="1:8" ht="15.6">
       <c r="A184" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="D184" s="13"/>
       <c r="F184" s="51" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="H184" s="36"/>
     </row>
     <row r="185" spans="1:8" ht="15.6">
       <c r="A185" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="C185" s="43" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="D185" s="13"/>
       <c r="F185" s="51" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="H185" s="36"/>
     </row>
     <row r="186" spans="1:8" ht="15.6">
       <c r="A186" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B186" s="42" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="C186" s="50" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
       <c r="D186" s="13"/>
       <c r="F186" s="51" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="H186" s="36"/>
     </row>
     <row r="187" spans="1:8" ht="15.6">
       <c r="A187" s="51" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B187" s="42" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="C187" s="43" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="D187" s="13"/>
       <c r="F187" s="51" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="H187" s="38"/>
     </row>
@@ -11836,10 +11836,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="B2" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="C2">
         <v>11111111</v>
